--- a/code/build/results_MyFireflyD10_basic/results_cec2017_10.xlsx
+++ b/code/build/results_MyFireflyD10_basic/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9014979200</v>
+        <v>23511600000</v>
       </c>
       <c r="D2" t="n">
-        <v>675461705200</v>
+        <v>1088273000000</v>
       </c>
       <c r="E2" t="n">
-        <v>41770.44</v>
+        <v>20683.82</v>
       </c>
       <c r="F2" t="n">
-        <v>852.64486</v>
+        <v>654.4421</v>
       </c>
       <c r="G2" t="n">
-        <v>115.054746</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>77.13287199999999</v>
+        <v>73.80954</v>
       </c>
       <c r="I2" t="n">
-        <v>376.96954</v>
+        <v>318.293</v>
       </c>
       <c r="J2" t="n">
-        <v>104.931034</v>
+        <v>122.7726</v>
       </c>
       <c r="K2" t="n">
-        <v>3037.4136</v>
+        <v>3833.729</v>
       </c>
       <c r="L2" t="n">
-        <v>2203.3846</v>
+        <v>2223.898</v>
       </c>
       <c r="M2" t="n">
-        <v>3187.2128</v>
+        <v>1384.015</v>
       </c>
       <c r="N2" t="n">
-        <v>718800040</v>
+        <v>440563200</v>
       </c>
       <c r="O2" t="n">
-        <v>16093349.4</v>
+        <v>13325810</v>
       </c>
       <c r="P2" t="n">
-        <v>28926.4702</v>
+        <v>22502.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>97049.49400000001</v>
+        <v>11238.47</v>
       </c>
       <c r="R2" t="n">
-        <v>774.65314</v>
+        <v>598.4491</v>
       </c>
       <c r="S2" t="n">
-        <v>331.05128</v>
+        <v>420.8736</v>
       </c>
       <c r="T2" t="n">
-        <v>68750733.8</v>
+        <v>23792270</v>
       </c>
       <c r="U2" t="n">
-        <v>890486.8</v>
+        <v>1426502</v>
       </c>
       <c r="V2" t="n">
-        <v>282.03676</v>
+        <v>320.7588</v>
       </c>
       <c r="W2" t="n">
-        <v>287.43694</v>
+        <v>281.4852</v>
       </c>
       <c r="X2" t="n">
-        <v>896.53532</v>
+        <v>668.234</v>
       </c>
       <c r="Y2" t="n">
-        <v>446.79646</v>
+        <v>440.2969</v>
       </c>
       <c r="Z2" t="n">
-        <v>496.0469999999999</v>
+        <v>503.5962</v>
       </c>
       <c r="AA2" t="n">
-        <v>1246.19732</v>
+        <v>1346.295</v>
       </c>
       <c r="AB2" t="n">
-        <v>1408.14226</v>
+        <v>1952.554</v>
       </c>
       <c r="AC2" t="n">
-        <v>557.8107</v>
+        <v>695.4029</v>
       </c>
       <c r="AD2" t="n">
-        <v>945.23752</v>
+        <v>720.6924</v>
       </c>
       <c r="AE2" t="n">
-        <v>620.1640199999999</v>
+        <v>787.045</v>
       </c>
       <c r="AF2" t="n">
-        <v>24467167.2</v>
+        <v>7416975</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D3" t="n">
-        <v>36141544400</v>
+        <v>1088273000000</v>
       </c>
       <c r="E3" t="n">
-        <v>31438.054</v>
+        <v>20683.82</v>
       </c>
       <c r="F3" t="n">
-        <v>643.0039399999999</v>
+        <v>654.4421</v>
       </c>
       <c r="G3" t="n">
-        <v>110.060806</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>65.599378</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J3" t="n">
-        <v>101.865464</v>
+        <v>113.2506</v>
       </c>
       <c r="K3" t="n">
-        <v>2734.3622</v>
+        <v>2354.517</v>
       </c>
       <c r="L3" t="n">
-        <v>2010.7144</v>
+        <v>2219.944</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N3" t="n">
-        <v>551248500</v>
+        <v>89472300</v>
       </c>
       <c r="O3" t="n">
-        <v>8046596.02</v>
+        <v>13325810</v>
       </c>
       <c r="P3" t="n">
-        <v>16304.4782</v>
+        <v>10436.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>55012.30179999999</v>
+        <v>5387.284</v>
       </c>
       <c r="R3" t="n">
-        <v>585.971</v>
+        <v>539.7264</v>
       </c>
       <c r="S3" t="n">
-        <v>271.50376</v>
+        <v>309.8282</v>
       </c>
       <c r="T3" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U3" t="n">
-        <v>257981.54014</v>
+        <v>778854.8</v>
       </c>
       <c r="V3" t="n">
-        <v>280.13232</v>
+        <v>320.7588</v>
       </c>
       <c r="W3" t="n">
-        <v>270.09408</v>
+        <v>268.0875</v>
       </c>
       <c r="X3" t="n">
-        <v>896.53532</v>
+        <v>668.234</v>
       </c>
       <c r="Y3" t="n">
-        <v>446.1648</v>
+        <v>440.2969</v>
       </c>
       <c r="Z3" t="n">
-        <v>480.7623400000001</v>
+        <v>462.9037</v>
       </c>
       <c r="AA3" t="n">
-        <v>1127.66046</v>
+        <v>971.5172</v>
       </c>
       <c r="AB3" t="n">
-        <v>1287.42662</v>
+        <v>1495.366</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.5238999999999</v>
+        <v>569.1667</v>
       </c>
       <c r="AD3" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE3" t="n">
-        <v>611.9444000000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF3" t="n">
-        <v>24067203.6</v>
+        <v>7416975</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D4" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E4" t="n">
-        <v>31438.054</v>
+        <v>20683.82</v>
       </c>
       <c r="F4" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G4" t="n">
-        <v>104.76609</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>61.447378</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J4" t="n">
-        <v>101.217004</v>
+        <v>113.2506</v>
       </c>
       <c r="K4" t="n">
-        <v>2452.3028</v>
+        <v>2354.517</v>
       </c>
       <c r="L4" t="n">
-        <v>1988.2366</v>
+        <v>2219.944</v>
       </c>
       <c r="M4" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N4" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O4" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P4" t="n">
-        <v>11024.9782</v>
+        <v>10436.46</v>
       </c>
       <c r="Q4" t="n">
-        <v>55012.30179999999</v>
+        <v>5387.284</v>
       </c>
       <c r="R4" t="n">
-        <v>585.971</v>
+        <v>539.7264</v>
       </c>
       <c r="S4" t="n">
-        <v>271.50376</v>
+        <v>309.8282</v>
       </c>
       <c r="T4" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U4" t="n">
-        <v>249904.10014</v>
+        <v>778854.8</v>
       </c>
       <c r="V4" t="n">
-        <v>280.13232</v>
+        <v>320.7588</v>
       </c>
       <c r="W4" t="n">
-        <v>261.84844</v>
+        <v>268.0875</v>
       </c>
       <c r="X4" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z4" t="n">
-        <v>478.65274</v>
+        <v>462.9037</v>
       </c>
       <c r="AA4" t="n">
-        <v>1099.96646</v>
+        <v>971.5172</v>
       </c>
       <c r="AB4" t="n">
-        <v>1287.42662</v>
+        <v>1495.366</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD4" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE4" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF4" t="n">
-        <v>21510178.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D5" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E5" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F5" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G5" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>61.447378</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J5" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K5" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L5" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M5" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N5" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O5" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P5" t="n">
-        <v>7941.3314</v>
+        <v>10436.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R5" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S5" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T5" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U5" t="n">
-        <v>71658.62613999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V5" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W5" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X5" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y5" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z5" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA5" t="n">
-        <v>1099.96646</v>
+        <v>971.5172</v>
       </c>
       <c r="AB5" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD5" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE5" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF5" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D6" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E6" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F6" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G6" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J6" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K6" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L6" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N6" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O6" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P6" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q6" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R6" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S6" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T6" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U6" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V6" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W6" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X6" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y6" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z6" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA6" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB6" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD6" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE6" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF6" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D7" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E7" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F7" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G7" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J7" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K7" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L7" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M7" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N7" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O7" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P7" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q7" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R7" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S7" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T7" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U7" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V7" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W7" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X7" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y7" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z7" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA7" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB7" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC7" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD7" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE7" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF7" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D8" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E8" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F8" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G8" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J8" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K8" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L8" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M8" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N8" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O8" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P8" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q8" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R8" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S8" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T8" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U8" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V8" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W8" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X8" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y8" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z8" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA8" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB8" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC8" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD8" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE8" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF8" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D9" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E9" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F9" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G9" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J9" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K9" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L9" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M9" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N9" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O9" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P9" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q9" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R9" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S9" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T9" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U9" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V9" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W9" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X9" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y9" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z9" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA9" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB9" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC9" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD9" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE9" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF9" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D10" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E10" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F10" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G10" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J10" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K10" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L10" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M10" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N10" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O10" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P10" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q10" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R10" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S10" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T10" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U10" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V10" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W10" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X10" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y10" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z10" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA10" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB10" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC10" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD10" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE10" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF10" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D11" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E11" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F11" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G11" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J11" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K11" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L11" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M11" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N11" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O11" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P11" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q11" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R11" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S11" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T11" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U11" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V11" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W11" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X11" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z11" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA11" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB11" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC11" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD11" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE11" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF11" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D12" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E12" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F12" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G12" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J12" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K12" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L12" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N12" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O12" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P12" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q12" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R12" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S12" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T12" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U12" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V12" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W12" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X12" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y12" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z12" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA12" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB12" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC12" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD12" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE12" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF12" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D13" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E13" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F13" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G13" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J13" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K13" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L13" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N13" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O13" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P13" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q13" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R13" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S13" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T13" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U13" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V13" t="n">
-        <v>255.09052</v>
+        <v>216.3509</v>
       </c>
       <c r="W13" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X13" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y13" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z13" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA13" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB13" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC13" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD13" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE13" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF13" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D14" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E14" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F14" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G14" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J14" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K14" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L14" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M14" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N14" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O14" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P14" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q14" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R14" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S14" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T14" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U14" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V14" t="n">
-        <v>255.09052</v>
+        <v>213.8927</v>
       </c>
       <c r="W14" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X14" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z14" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA14" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB14" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC14" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD14" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE14" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF14" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>9014979200</v>
+        <v>13710970000</v>
       </c>
       <c r="D15" t="n">
-        <v>36141544400</v>
+        <v>499841100000</v>
       </c>
       <c r="E15" t="n">
-        <v>27178.83</v>
+        <v>20683.82</v>
       </c>
       <c r="F15" t="n">
-        <v>603.84992</v>
+        <v>632.8659</v>
       </c>
       <c r="G15" t="n">
-        <v>104.252616</v>
+        <v>99.95068000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>61.381162</v>
+        <v>67.59014999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>313.35538</v>
+        <v>318.293</v>
       </c>
       <c r="J15" t="n">
-        <v>95.64654400000001</v>
+        <v>113.2506</v>
       </c>
       <c r="K15" t="n">
-        <v>2307.7522</v>
+        <v>2354.517</v>
       </c>
       <c r="L15" t="n">
-        <v>1845.4852</v>
+        <v>2099.555</v>
       </c>
       <c r="M15" t="n">
-        <v>1295.02782</v>
+        <v>1384.015</v>
       </c>
       <c r="N15" t="n">
-        <v>448356860</v>
+        <v>89472300</v>
       </c>
       <c r="O15" t="n">
-        <v>4803447.9</v>
+        <v>13325810</v>
       </c>
       <c r="P15" t="n">
-        <v>4075.93668</v>
+        <v>5329.744</v>
       </c>
       <c r="Q15" t="n">
-        <v>21882.5624</v>
+        <v>5387.284</v>
       </c>
       <c r="R15" t="n">
-        <v>545.13834</v>
+        <v>539.7264</v>
       </c>
       <c r="S15" t="n">
-        <v>271.50376</v>
+        <v>255.7561</v>
       </c>
       <c r="T15" t="n">
-        <v>31283359.8</v>
+        <v>11726240</v>
       </c>
       <c r="U15" t="n">
-        <v>70821.14813999999</v>
+        <v>654697.8</v>
       </c>
       <c r="V15" t="n">
-        <v>255.09052</v>
+        <v>213.8927</v>
       </c>
       <c r="W15" t="n">
-        <v>249.43284</v>
+        <v>268.0875</v>
       </c>
       <c r="X15" t="n">
-        <v>766.2933999999999</v>
+        <v>668.234</v>
       </c>
       <c r="Y15" t="n">
-        <v>443.83552</v>
+        <v>440.2969</v>
       </c>
       <c r="Z15" t="n">
-        <v>478.32496</v>
+        <v>462.9037</v>
       </c>
       <c r="AA15" t="n">
-        <v>1091.15666</v>
+        <v>971.5172</v>
       </c>
       <c r="AB15" t="n">
-        <v>1287.42662</v>
+        <v>1101.816</v>
       </c>
       <c r="AC15" t="n">
-        <v>515.2065</v>
+        <v>569.1667</v>
       </c>
       <c r="AD15" t="n">
-        <v>913.5949800000001</v>
+        <v>705.4849</v>
       </c>
       <c r="AE15" t="n">
-        <v>591.1198400000001</v>
+        <v>710.5785</v>
       </c>
       <c r="AF15" t="n">
-        <v>18972628.8</v>
+        <v>7416975</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
